--- a/DataFileSamples/Settings.xlsx
+++ b/DataFileSamples/Settings.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cycleuser/Documents/GitHub/GeoPyTool/DataFileSamples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{986FB1C4-2451-424A-871A-05510E3EA112}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{53031F10-57D7-0A41-A99D-D10436B7BC98}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{FBCACF99-A6B6-294D-9E93-9A56262264D9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{FBCACF99-A6B6-294D-9E93-9A56262264D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Color" sheetId="1" r:id="rId1"/>
     <sheet name="Marker" sheetId="2" r:id="rId2"/>
     <sheet name="Style" sheetId="4" r:id="rId3"/>
+    <sheet name="工作表1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913" iterateCount="200" iterateDelta="9.9999999999999995E-7" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="87">
   <si>
     <t>Code</t>
   </si>
@@ -180,9 +181,6 @@
   </si>
   <si>
     <t>r'$\sqrt{2}$'</t>
-  </si>
-  <si>
-    <t>Any latex expression</t>
   </si>
   <si>
     <t>-</t>
@@ -324,6 +322,10 @@
   </si>
   <si>
     <t>grey</t>
+  </si>
+  <si>
+    <t>latex expression</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -579,17 +581,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -973,7 +975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2248570-B028-AC49-A3FB-F5B7EDB8BDFF}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -1039,7 +1041,7 @@
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1053,47 +1055,47 @@
     </row>
     <row r="27" spans="8:8">
       <c r="H27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="8:8">
       <c r="H28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="8:8">
       <c r="H29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="8:8">
       <c r="H30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="8:8">
       <c r="H31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="8:8">
       <c r="H32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="8:8">
       <c r="H33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="8:8">
       <c r="H34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="8:8">
       <c r="H35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1107,10 +1109,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3AB45C-9F31-974C-9314-27D3D6C6A0B9}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1271,9 +1273,146 @@
         <v>50</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C17" s="16"/>
+    </row>
+    <row r="29" spans="1:3" ht="17" thickBot="1"/>
+    <row r="30" spans="1:3" ht="26" thickBot="1">
+      <c r="A30" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="26">
+      <c r="A31" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="26">
+      <c r="A32" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="26">
+      <c r="A33" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="26">
+      <c r="A34" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="26">
+      <c r="A35" s="13">
+        <v>8</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="26">
+      <c r="A36" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="26">
+      <c r="A37" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="26">
+      <c r="A38" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="26">
+      <c r="A39" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="26">
+      <c r="A40" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="26">
+      <c r="A41" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="26">
+      <c r="A42" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="26">
+      <c r="A43" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="26">
+      <c r="A44" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="26">
+      <c r="A45" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="27" thickBot="1">
+      <c r="A46" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1298,7 +1437,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="26" thickBot="1">
       <c r="A1" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>19</v>
@@ -1309,37 +1448,37 @@
     </row>
     <row r="2" spans="1:3" ht="25">
       <c r="A2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>52</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>53</v>
       </c>
       <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" ht="25">
       <c r="A3" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>54</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>55</v>
       </c>
       <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3" ht="25">
       <c r="A4" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>56</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>57</v>
       </c>
       <c r="C4" s="19"/>
     </row>
     <row r="5" spans="1:3" ht="25">
       <c r="A5" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>58</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>59</v>
       </c>
       <c r="C5" s="19"/>
     </row>
@@ -1348,16 +1487,16 @@
         <v>44</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="19"/>
     </row>
     <row r="7" spans="1:3" ht="25">
       <c r="A7" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>61</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>62</v>
       </c>
       <c r="C7" s="20"/>
     </row>
@@ -1390,7 +1529,7 @@
     </row>
     <row r="11" spans="1:3" ht="25">
       <c r="A11" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>37</v>
@@ -1399,7 +1538,7 @@
     </row>
     <row r="12" spans="1:3" ht="25">
       <c r="A12" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>39</v>
@@ -1426,10 +1565,10 @@
     </row>
     <row r="15" spans="1:3" ht="25">
       <c r="A15" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>63</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>64</v>
       </c>
       <c r="C15" s="19"/>
     </row>
@@ -1456,43 +1595,43 @@
         <v>1</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="21"/>
+        <v>64</v>
+      </c>
+      <c r="C18" s="24"/>
     </row>
     <row r="19" spans="1:3" ht="25">
       <c r="A19" s="18">
         <v>2</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="21"/>
+        <v>65</v>
+      </c>
+      <c r="C19" s="24"/>
     </row>
     <row r="20" spans="1:3" ht="25">
       <c r="A20" s="18">
         <v>3</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="21"/>
+        <v>66</v>
+      </c>
+      <c r="C20" s="24"/>
     </row>
     <row r="21" spans="1:3" ht="25">
       <c r="A21" s="18">
         <v>4</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="21"/>
+        <v>67</v>
+      </c>
+      <c r="C21" s="24"/>
     </row>
     <row r="22" spans="1:3" ht="25">
       <c r="A22" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" s="19"/>
     </row>
@@ -1501,7 +1640,7 @@
         <v>27</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" s="19"/>
     </row>
@@ -1516,21 +1655,21 @@
     </row>
     <row r="25" spans="1:3" ht="25">
       <c r="A25" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="C25" s="19"/>
+    </row>
+    <row r="26" spans="1:3" ht="26" thickBot="1">
+      <c r="A26" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="19"/>
-    </row>
-    <row r="26" spans="1:3" ht="26" thickBot="1">
-      <c r="A26" s="22" t="s">
+      <c r="B26" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="23"/>
+      <c r="C26" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1540,4 +1679,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC46C480-5F93-4248-9246-C85FE685BFBD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DataFileSamples/Settings.xlsx
+++ b/DataFileSamples/Settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cycleuser/Documents/GitHub/GeoPyTool/DataFileSamples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{53031F10-57D7-0A41-A99D-D10436B7BC98}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{956352D3-3F2D-444F-A91D-363FBB2C99A5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{FBCACF99-A6B6-294D-9E93-9A56262264D9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="21140" activeTab="2" xr2:uid="{FBCACF99-A6B6-294D-9E93-9A56262264D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Color" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
   <si>
     <t>Code</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Appearance</t>
-  </si>
-  <si>
     <t>o</t>
   </si>
   <si>
@@ -205,51 +202,6 @@
   </si>
   <si>
     <t>Dotted line</t>
-  </si>
-  <si>
-    <t>Points</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>Pixels</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Cross</t>
-  </si>
-  <si>
-    <t>Tripod down</t>
-  </si>
-  <si>
-    <t>Tripod up</t>
-  </si>
-  <si>
-    <t>Tripod left</t>
-  </si>
-  <si>
-    <t>Tripod right</t>
-  </si>
-  <si>
-    <t>Hexagon</t>
-  </si>
-  <si>
-    <t>Rotated hexagon</t>
-  </si>
-  <si>
-    <t>|</t>
-  </si>
-  <si>
-    <t>Vertical line</t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t>Horizontal line</t>
   </si>
   <si>
     <r>
@@ -267,64 +219,171 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>&lt;</t>
-    </r>
+    <t>latex expression</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <rPh sb="0" eb="2">
+      <t>miao'shu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
-        <i/>
+        <b/>
         <sz val="20"/>
         <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
-      <t> </t>
+      <t>描述</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="20"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>green</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>cyan</t>
-  </si>
-  <si>
-    <t>magenta</t>
-  </si>
-  <si>
-    <t>yellow</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>grey</t>
-  </si>
-  <si>
-    <t>latex expression</t>
+    <rPh sb="0" eb="2">
+      <t>miao'shu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实线</t>
+    <rPh sb="0" eb="2">
+      <t>shi'xian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>线段构成的虚线</t>
+    <rPh sb="0" eb="116">
+      <t>jian'duan</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>线段点构成的虚线</t>
+    <rPh sb="0" eb="2">
+      <t>xian'duan</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点构成的虚线</t>
+    <rPh sb="0" eb="1">
+      <t>dian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加号</t>
+    <rPh sb="0" eb="2">
+      <t>jia'hao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>窄菱形</t>
+    <rPh sb="0" eb="1">
+      <t>zhai</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菱形</t>
+    <rPh sb="0" eb="38">
+      <t>fang'x</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆形</t>
+    <rPh sb="0" eb="2">
+      <t>yuan'dian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>六边形1</t>
+    <rPh sb="0" eb="3">
+      <t>liu'b'x</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>六边形2</t>
+    <rPh sb="0" eb="3">
+      <t>l'b'x</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>八角形</t>
+    <rPh sb="0" eb="3">
+      <t>ba'jiao'x</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>五角形</t>
+    <rPh sb="0" eb="3">
+      <t>wu'jiao'xing</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>三角形向上</t>
+    <rPh sb="0" eb="1">
+      <t>shang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>三角形向下</t>
+    <rPh sb="0" eb="1">
+      <t>xia</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>三角形向左</t>
+    <rPh sb="0" eb="3">
+      <t>s'j'x</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>三角形向右</t>
+    <rPh sb="0" eb="3">
+      <t>san'j'x</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小点</t>
+    <rPh sb="0" eb="1">
+      <t>xiao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>方形</t>
+    <rPh sb="0" eb="1">
+      <t>dian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>星形</t>
+    <rPh sb="0" eb="2">
+      <t>xing'x</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学公式</t>
+    <rPh sb="0" eb="4">
+      <t>shu'xue'gong'shi</t>
+    </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -332,7 +391,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -387,17 +446,44 @@
       <name val="Times Roman"/>
     </font>
     <font>
-      <i/>
       <sz val="20"/>
-      <color rgb="FF000000"/>
+      <color theme="0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="20"/>
-      <color theme="0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <color rgb="FF000000"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11.4"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="9">
@@ -517,7 +603,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -575,23 +661,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -616,21 +699,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 112" descr="igures/linestyle-,.png">
+        <xdr:cNvPr id="3" name="图片 112" descr="igures/linestyle-,.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56F3C759-CB16-C848-A04C-28837ADBEE5C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D71AA42-736B-A942-BCCA-FB4D944CCCAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -653,7 +736,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="330200" y="1295400"/>
+          <a:off x="330200" y="1993900"/>
           <a:ext cx="88900" cy="88900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -973,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2248570-B028-AC49-A3FB-F5B7EDB8BDFF}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1041,7 +1124,7 @@
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="19" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1051,51 +1134,6 @@
       </c>
       <c r="B9" s="11" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="8:8">
-      <c r="H27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="8:8">
-      <c r="H28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="8:8">
-      <c r="H29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="8:8">
-      <c r="H30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="8:8">
-      <c r="H31" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="8:8">
-      <c r="H32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="8:8">
-      <c r="H33" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="8:8">
-      <c r="H34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="8:8">
-      <c r="H35" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1109,10 +1147,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3AB45C-9F31-974C-9314-27D3D6C6A0B9}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:B46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1122,296 +1160,191 @@
     <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26" thickBot="1">
+    <row r="1" spans="1:3" ht="27" thickBot="1">
       <c r="A1" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>20</v>
+      <c r="C1" s="23" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="26">
       <c r="A2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="14"/>
+      <c r="C2" s="14" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="26">
       <c r="A3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="14" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="26">
       <c r="A4" s="13" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="14"/>
+        <v>40</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="26">
       <c r="A5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="26">
+      <c r="A6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="C6" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="26">
+      <c r="A7" s="13">
+        <v>8</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="14"/>
-    </row>
-    <row r="6" spans="1:3" ht="26">
-      <c r="A6" s="13">
-        <v>8</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="14"/>
-    </row>
-    <row r="7" spans="1:3" ht="26">
-      <c r="A7" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="14"/>
+      <c r="C7" s="14" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="26">
       <c r="A8" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="14"/>
+        <v>30</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="26">
       <c r="A9" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="14"/>
+        <v>32</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="26">
       <c r="A10" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="14"/>
+        <v>34</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="26">
       <c r="A11" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="14"/>
+        <v>36</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="26">
       <c r="A12" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="14"/>
+        <v>38</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="26">
       <c r="A13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="14"/>
+      <c r="C13" s="14" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="26">
       <c r="A14" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="14" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="26">
       <c r="A15" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="26">
       <c r="A16" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="14" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="27" thickBot="1">
       <c r="A17" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="16"/>
-    </row>
-    <row r="29" spans="1:3" ht="17" thickBot="1"/>
-    <row r="30" spans="1:3" ht="26" thickBot="1">
-      <c r="A30" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="26">
-      <c r="A31" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="26">
-      <c r="A32" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="26">
-      <c r="A33" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="26">
-      <c r="A34" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="26">
-      <c r="A35" s="13">
-        <v>8</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="26">
-      <c r="A36" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="26">
-      <c r="A37" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="26">
-      <c r="A38" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="26">
-      <c r="A39" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="26">
-      <c r="A40" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="26">
-      <c r="A41" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="26">
-      <c r="A42" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="26">
-      <c r="A43" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="26">
-      <c r="A44" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="26">
-      <c r="A45" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="27" thickBot="1">
-      <c r="A46" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>86</v>
+        <v>59</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1422,259 +1355,159 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FD3789-20E3-D140-948E-B40B0B4FF322}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26" thickBot="1">
+    <row r="1" spans="1:3" ht="27" thickBot="1">
       <c r="A1" s="17" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>20</v>
+      <c r="C1" s="20" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="25">
       <c r="A2" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="19"/>
+      <c r="C2" s="18" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="25">
       <c r="A3" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="18" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="25">
       <c r="A4" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="19"/>
+      <c r="C4" s="18" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="25">
       <c r="A5" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="19"/>
-    </row>
-    <row r="6" spans="1:3" ht="25">
-      <c r="A6" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="19"/>
-    </row>
-    <row r="7" spans="1:3" ht="25">
-      <c r="A7" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="20"/>
-    </row>
-    <row r="8" spans="1:3" ht="25">
-      <c r="A8" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="19"/>
-    </row>
-    <row r="9" spans="1:3" ht="25">
-      <c r="A9" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="19"/>
-    </row>
-    <row r="10" spans="1:3" ht="25">
-      <c r="A10" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="19"/>
-    </row>
-    <row r="11" spans="1:3" ht="25">
-      <c r="A11" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="19"/>
-    </row>
-    <row r="12" spans="1:3" ht="25">
-      <c r="A12" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="19"/>
-    </row>
-    <row r="13" spans="1:3" ht="25">
-      <c r="A13" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="19"/>
-    </row>
-    <row r="14" spans="1:3" ht="25">
-      <c r="A14" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="19"/>
-    </row>
-    <row r="15" spans="1:3" ht="25">
-      <c r="A15" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="19"/>
-    </row>
-    <row r="16" spans="1:3" ht="25">
-      <c r="A16" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="19"/>
-    </row>
-    <row r="17" spans="1:3" ht="25">
-      <c r="A17" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="19"/>
-    </row>
-    <row r="18" spans="1:3" ht="25">
-      <c r="A18" s="18">
-        <v>1</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="24"/>
-    </row>
-    <row r="19" spans="1:3" ht="25">
-      <c r="A19" s="18">
-        <v>2</v>
-      </c>
-      <c r="B19" s="18" t="s">
+      <c r="C5" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="24"/>
-    </row>
-    <row r="20" spans="1:3" ht="25">
-      <c r="A20" s="18">
-        <v>3</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="24"/>
-    </row>
-    <row r="21" spans="1:3" ht="25">
-      <c r="A21" s="18">
-        <v>4</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="24"/>
-    </row>
-    <row r="22" spans="1:3" ht="25">
-      <c r="A22" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="19"/>
-    </row>
-    <row r="23" spans="1:3" ht="25">
-      <c r="A23" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="19"/>
-    </row>
-    <row r="24" spans="1:3" ht="25">
-      <c r="A24" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="19"/>
-    </row>
-    <row r="25" spans="1:3" ht="25">
-      <c r="A25" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="19"/>
-    </row>
-    <row r="26" spans="1:3" ht="26" thickBot="1">
-      <c r="A26" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="22"/>
+    </row>
+    <row r="31" spans="5:6" ht="18">
+      <c r="E31" s="21"/>
+      <c r="F31" s="22"/>
+    </row>
+    <row r="32" spans="5:6" ht="18">
+      <c r="E32" s="21"/>
+      <c r="F32" s="22"/>
+    </row>
+    <row r="33" spans="1:6" ht="18">
+      <c r="E33" s="21"/>
+      <c r="F33" s="22"/>
+    </row>
+    <row r="34" spans="1:6" ht="18">
+      <c r="E34" s="21"/>
+      <c r="F34" s="22"/>
+    </row>
+    <row r="35" spans="1:6" ht="25">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+    </row>
+    <row r="36" spans="1:6" ht="25">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+    </row>
+    <row r="37" spans="1:6" ht="25">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+    </row>
+    <row r="38" spans="1:6" ht="25">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+    </row>
+    <row r="39" spans="1:6" ht="25">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+    </row>
+    <row r="40" spans="1:6" ht="25">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+    </row>
+    <row r="41" spans="1:6" ht="25">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+    </row>
+    <row r="42" spans="1:6" ht="25">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+    </row>
+    <row r="43" spans="1:6" ht="25">
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+    </row>
+    <row r="44" spans="1:6" ht="25">
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+    </row>
+    <row r="45" spans="1:6" ht="25">
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+    </row>
+    <row r="46" spans="1:6" ht="25">
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
+    </row>
+    <row r="47" spans="1:6" ht="25">
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
+    </row>
+    <row r="48" spans="1:6" ht="25">
+      <c r="A48" s="18"/>
+      <c r="B48" s="18"/>
+    </row>
+    <row r="49" spans="1:2" ht="25">
+      <c r="A49" s="18"/>
+      <c r="B49" s="18"/>
+    </row>
+    <row r="50" spans="1:2" ht="25">
+      <c r="A50" s="18"/>
+      <c r="B50" s="18"/>
+    </row>
+    <row r="51" spans="1:2" ht="25">
+      <c r="A51" s="18"/>
+      <c r="B51" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C18:C21"/>
-  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/DataFileSamples/Settings.xlsx
+++ b/DataFileSamples/Settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cycleuser/Documents/GitHub/GeoPyTool/DataFileSamples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{956352D3-3F2D-444F-A91D-363FBB2C99A5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:520000_{2B195354-BC2C-4149-B13D-C88DB77A5E0B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="21140" activeTab="2" xr2:uid="{FBCACF99-A6B6-294D-9E93-9A56262264D9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="21140" xr2:uid="{FBCACF99-A6B6-294D-9E93-9A56262264D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Color" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="工作表1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913" iterateCount="200" iterateDelta="9.9999999999999995E-7" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,57 +29,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
-  <si>
-    <t>Code</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="84">
   <si>
     <t>Color</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>Blue</t>
   </si>
   <si>
-    <t>g</t>
-  </si>
-  <si>
     <t>Green</t>
   </si>
   <si>
-    <t>r</t>
-  </si>
-  <si>
     <t>Red</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
     <t>Cyan</t>
   </si>
   <si>
-    <t>m</t>
-  </si>
-  <si>
     <t>Magenta</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>Yellow</t>
   </si>
   <si>
-    <t>k</t>
-  </si>
-  <si>
     <t>Black</t>
-  </si>
-  <si>
-    <t>w</t>
   </si>
   <si>
     <t>White</t>
@@ -255,7 +229,7 @@
   </si>
   <si>
     <t>线段构成的虚线</t>
-    <rPh sb="0" eb="116">
+    <rPh sb="0" eb="7">
       <t>jian'duan</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -290,7 +264,7 @@
   </si>
   <si>
     <t>菱形</t>
-    <rPh sb="0" eb="38">
+    <rPh sb="0" eb="2">
       <t>fang'x</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -383,6 +357,80 @@
     <t>数学公式</t>
     <rPh sb="0" eb="4">
       <t>shu'xue'gong'shi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色</t>
+    <rPh sb="0" eb="2">
+      <t>yan'se</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿</t>
+    <rPh sb="0" eb="2">
+      <t>lv's</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝</t>
+    <rPh sb="0" eb="9">
+      <t>lan'se</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>红</t>
+    <rPh sb="0" eb="1">
+      <t>hong</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>青</t>
+    <rPh sb="0" eb="1">
+      <t>qing</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>品红</t>
+    <rPh sb="0" eb="2">
+      <t>pin'h</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄</t>
+    <rPh sb="0" eb="1">
+      <t>huang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑</t>
+    <rPh sb="0" eb="1">
+      <t>hei</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>白</t>
+    <rPh sb="0" eb="1">
+      <t>bai</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <rPh sb="0" eb="1">
+      <t>bai</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -391,7 +439,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -485,8 +533,30 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -535,8 +605,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -546,43 +622,10 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -603,44 +646,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -649,13 +665,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -664,7 +680,7 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -673,8 +689,41 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1056,84 +1105,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2248570-B028-AC49-A3FB-F5B7EDB8BDFF}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="26" thickBot="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="27" thickBot="1">
+      <c r="A1" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="26">
+      <c r="A2" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="25">
-      <c r="A2" s="3" t="s">
+      <c r="C2" s="23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="25">
+      <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="25">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="25">
-      <c r="A3" s="3" t="s">
+      <c r="B4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="25">
+      <c r="A5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="25">
+      <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="25">
-      <c r="A4" s="3" t="s">
+      <c r="B6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="25">
+      <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B7" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="25">
+      <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="25">
-      <c r="A5" s="3" t="s">
+      <c r="B8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="26" thickBot="1">
+      <c r="A9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="25">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="25">
-      <c r="A7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="25">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="26" thickBot="1">
-      <c r="A9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>17</v>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1161,190 +1240,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27" thickBot="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="26">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="26">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="26">
+      <c r="A4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="26">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="26">
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C6" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="26">
+      <c r="A7" s="4">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="26">
-      <c r="A2" s="13" t="s">
+      <c r="C7" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="26">
+      <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C8" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="26">
+      <c r="A9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="26">
+      <c r="A10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="26">
+      <c r="A11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="26">
+      <c r="A12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="26">
+      <c r="A13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="26">
+      <c r="A14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="26">
-      <c r="A3" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="26">
-      <c r="A4" s="13" t="s">
+    <row r="15" spans="1:3" ht="26">
+      <c r="A15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="26">
+      <c r="A16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="C16" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="27" thickBot="1">
+      <c r="A17" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="26">
-      <c r="A5" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="26">
-      <c r="A6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="26">
-      <c r="A7" s="13">
-        <v>8</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="14" t="s">
+      <c r="B17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="26">
-      <c r="A8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="26">
-      <c r="A9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="26">
-      <c r="A10" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="26">
-      <c r="A11" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="26">
-      <c r="A12" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="26">
-      <c r="A13" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="26">
-      <c r="A14" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="26">
-      <c r="A15" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="26">
-      <c r="A16" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="27" thickBot="1">
-      <c r="A17" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1357,7 +1436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FD3789-20E3-D140-948E-B40B0B4FF322}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
@@ -1369,143 +1448,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27" thickBot="1">
-      <c r="A1" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>61</v>
+      <c r="A1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="25">
-      <c r="A2" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>62</v>
+      <c r="A2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="25">
-      <c r="A3" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>63</v>
+      <c r="A3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="25">
-      <c r="A4" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="18" t="s">
+      <c r="A4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="5" spans="1:3" ht="25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="31" spans="5:6" ht="18">
-      <c r="E31" s="21"/>
-      <c r="F31" s="22"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="13"/>
     </row>
     <row r="32" spans="5:6" ht="18">
-      <c r="E32" s="21"/>
-      <c r="F32" s="22"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="13"/>
     </row>
     <row r="33" spans="1:6" ht="18">
-      <c r="E33" s="21"/>
-      <c r="F33" s="22"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="13"/>
     </row>
     <row r="34" spans="1:6" ht="18">
-      <c r="E34" s="21"/>
-      <c r="F34" s="22"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6" ht="25">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
     </row>
     <row r="36" spans="1:6" ht="25">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
     </row>
     <row r="37" spans="1:6" ht="25">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
     </row>
     <row r="38" spans="1:6" ht="25">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
     </row>
     <row r="39" spans="1:6" ht="25">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
     </row>
     <row r="40" spans="1:6" ht="25">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
     </row>
     <row r="41" spans="1:6" ht="25">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
     </row>
     <row r="42" spans="1:6" ht="25">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
     </row>
     <row r="43" spans="1:6" ht="25">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
     </row>
     <row r="44" spans="1:6" ht="25">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
     </row>
     <row r="45" spans="1:6" ht="25">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
     </row>
     <row r="46" spans="1:6" ht="25">
-      <c r="A46" s="18"/>
-      <c r="B46" s="18"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
     </row>
     <row r="47" spans="1:6" ht="25">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
     </row>
     <row r="48" spans="1:6" ht="25">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
     </row>
     <row r="49" spans="1:2" ht="25">
-      <c r="A49" s="18"/>
-      <c r="B49" s="18"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
     </row>
     <row r="50" spans="1:2" ht="25">
-      <c r="A50" s="18"/>
-      <c r="B50" s="18"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
     </row>
     <row r="51" spans="1:2" ht="25">
-      <c r="A51" s="18"/>
-      <c r="B51" s="18"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1516,12 +1595,112 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC46C480-5F93-4248-9246-C85FE685BFBD}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="26" thickBot="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="26">
+      <c r="A2" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="25">
+      <c r="A3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="25">
+      <c r="A4" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="25">
+      <c r="A5" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="25">
+      <c r="A6" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="25">
+      <c r="A7" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="25">
+      <c r="A8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="26" thickBot="1">
+      <c r="A9" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataFileSamples/Settings.xlsx
+++ b/DataFileSamples/Settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cycleuser/Documents/GitHub/GeoPyTool/DataFileSamples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:520000_{2B195354-BC2C-4149-B13D-C88DB77A5E0B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FADD35D4-65AF-C344-A671-D82B1BF0BEF9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="21140" xr2:uid="{FBCACF99-A6B6-294D-9E93-9A56262264D9}"/>
+    <workbookView xWindow="12440" yWindow="460" windowWidth="19200" windowHeight="21140" xr2:uid="{FBCACF99-A6B6-294D-9E93-9A56262264D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Color" sheetId="1" r:id="rId1"/>
@@ -369,14 +369,14 @@
   </si>
   <si>
     <t>绿</t>
-    <rPh sb="0" eb="2">
+    <rPh sb="0" eb="1">
       <t>lv's</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>蓝</t>
-    <rPh sb="0" eb="9">
+    <rPh sb="0" eb="1">
       <t>lan'se</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
